--- a/src/test/resources/data/out/jouerAuJeuDesLogos.xlsx
+++ b/src/test/resources/data/out/jouerAuJeuDesLogos.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="25">
   <si>
     <t>Résultat</t>
   </si>
@@ -99,7 +99,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,16 +125,6 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -229,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -252,8 +242,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,7 +608,7 @@
       <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="16" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="3"/>
@@ -633,7 +621,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="17" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="3"/>
@@ -646,7 +634,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="8"/>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="16" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="4"/>
@@ -659,7 +647,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="16" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="3"/>
@@ -672,7 +660,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="17" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="3"/>
@@ -685,7 +673,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="16" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="4"/>
@@ -700,7 +688,7 @@
       <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="18" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="3"/>
@@ -713,7 +701,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="19" t="s">
         <v>21</v>
       </c>
     </row>
@@ -725,7 +713,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="8"/>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="16" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="3"/>
@@ -738,7 +726,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="8"/>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="16" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="3"/>
@@ -751,7 +739,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="8"/>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="18" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="4"/>
@@ -764,7 +752,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="18" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="3"/>
@@ -777,7 +765,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="19" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="3"/>
@@ -790,7 +778,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="18" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="4"/>
@@ -803,7 +791,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="8"/>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="18" t="s">
         <v>20</v>
       </c>
     </row>
@@ -817,7 +805,7 @@
       <c r="C17" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="21" t="s">
         <v>21</v>
       </c>
     </row>
@@ -829,7 +817,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="8"/>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="21" t="s">
         <v>21</v>
       </c>
     </row>
@@ -841,7 +829,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="8"/>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="20" t="s">
         <v>20</v>
       </c>
     </row>
@@ -853,7 +841,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="8"/>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="18" t="s">
         <v>20</v>
       </c>
     </row>
@@ -865,7 +853,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="8"/>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="19" t="s">
         <v>21</v>
       </c>
     </row>
@@ -877,7 +865,7 @@
         <v>13</v>
       </c>
       <c r="C22" s="8"/>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="18" t="s">
         <v>20</v>
       </c>
     </row>
@@ -889,7 +877,7 @@
         <v>14</v>
       </c>
       <c r="C23" s="8"/>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="18" t="s">
         <v>20</v>
       </c>
     </row>
@@ -901,7 +889,7 @@
         <v>15</v>
       </c>
       <c r="C24" s="8"/>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="18" t="s">
         <v>20</v>
       </c>
     </row>

--- a/src/test/resources/data/out/jouerAuJeuDesLogos.xlsx
+++ b/src/test/resources/data/out/jouerAuJeuDesLogos.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="22">
   <si>
     <t>Résultat</t>
   </si>
@@ -79,27 +79,17 @@
     <t>score</t>
   </si>
   <si>
-    <t>Succès</t>
-  </si>
-  <si>
-    <t>Échec : Brand does not exist.</t>
-  </si>
-  <si>
-    <t>6 / 12</t>
-  </si>
-  <si>
-    <t>9 / 12</t>
-  </si>
-  <si>
-    <t>1 / 12</t>
+    <t>Steven</t>
+  </si>
+  <si>
+    <t>heineken</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,68 +116,8 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,6 +136,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -219,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -230,23 +166,75 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF6600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF6600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF6600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF6600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF6600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF6600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF6600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF6600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF6600"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -572,16 +560,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="1" max="1" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -605,12 +593,8 @@
       <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>20</v>
-      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="6"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -621,9 +605,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="17" t="s">
-        <v>21</v>
-      </c>
+      <c r="D3" s="7"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -634,9 +616,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="8"/>
-      <c r="D4" s="16" t="s">
-        <v>20</v>
-      </c>
+      <c r="D4" s="7"/>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -647,9 +627,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="16" t="s">
-        <v>20</v>
-      </c>
+      <c r="D5" s="6"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -660,9 +638,6 @@
         <v>8</v>
       </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="17" t="s">
-        <v>21</v>
-      </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -673,9 +648,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="16" t="s">
-        <v>20</v>
-      </c>
+      <c r="D7" s="7"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -685,12 +658,8 @@
       <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>20</v>
-      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -701,9 +670,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="19" t="s">
-        <v>21</v>
-      </c>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -713,9 +680,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="8"/>
-      <c r="D10" s="16" t="s">
-        <v>20</v>
-      </c>
+      <c r="D10" s="6"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -726,9 +691,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="8"/>
-      <c r="D11" s="16" t="s">
-        <v>20</v>
-      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -739,9 +702,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="8"/>
-      <c r="D12" s="18" t="s">
-        <v>20</v>
-      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -752,9 +713,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="18" t="s">
-        <v>20</v>
-      </c>
+      <c r="D13" s="6"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -765,9 +724,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="19" t="s">
-        <v>21</v>
-      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -778,9 +735,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="18" t="s">
-        <v>20</v>
-      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -791,9 +746,6 @@
         <v>10</v>
       </c>
       <c r="C16" s="8"/>
-      <c r="D16" s="18" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
@@ -802,12 +754,7 @@
       <c r="B17" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>21</v>
-      </c>
+      <c r="C17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
@@ -817,9 +764,6 @@
         <v>17</v>
       </c>
       <c r="C18" s="8"/>
-      <c r="D18" s="21" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
@@ -829,9 +773,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="8"/>
-      <c r="D19" s="20" t="s">
-        <v>20</v>
-      </c>
+      <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
@@ -841,9 +783,6 @@
         <v>11</v>
       </c>
       <c r="C20" s="8"/>
-      <c r="D20" s="18" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
@@ -853,9 +792,6 @@
         <v>12</v>
       </c>
       <c r="C21" s="8"/>
-      <c r="D21" s="19" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
@@ -865,9 +801,6 @@
         <v>13</v>
       </c>
       <c r="C22" s="8"/>
-      <c r="D22" s="18" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
@@ -877,9 +810,6 @@
         <v>14</v>
       </c>
       <c r="C23" s="8"/>
-      <c r="D23" s="18" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
@@ -889,21 +819,42 @@
         <v>15</v>
       </c>
       <c r="C24" s="8"/>
-      <c r="D24" s="18" t="s">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+      <c r="B25" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+      <c r="A26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
+      <c r="A27" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="10"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+      <c r="A28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
@@ -972,19 +923,34 @@
       <c r="A50" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="2" priority="4">
+  <conditionalFormatting sqref="D9 D19">
+    <cfRule type="expression" dxfId="11" priority="10">
       <formula>COUNTIFS($A:$A,$A6,$D:$D, "Échec :*") &gt; 0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>COUNTIFS($A:$A,$A16,$D:$D, "Échec :*") &gt; 0</formula>
+  <conditionalFormatting sqref="D2:D5 D7:D8 D10:D18 D20:D24 A2:C24">
+    <cfRule type="expression" dxfId="9" priority="6">
+      <formula>COUNTIFS($A:$A,$A2,$D:$D, "Échec :*") &gt; 0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D5 D7:D8 D10:D18 D20:D24 A2:C24">
-    <cfRule type="expression" dxfId="0" priority="5">
-      <formula>COUNTIFS($A:$A,$A2,$D:$D, "Échec :*") &gt; 0</formula>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="expression" dxfId="7" priority="4">
+      <formula>COUNTIFS($A:$A,$A26,$D:$D, "Échec :*") &gt; 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25:B25 B26 A26:A28">
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>COUNTIFS($A:$A,$A25,$D:$D, "Échec :*") &gt; 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>COUNTIFS($A:$A,$A28,$D:$D, "Échec :*") &gt; 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>COUNTIFS($A:$A,$A26,$D:$D, "Échec :*") &gt; 0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/data/out/jouerAuJeuDesLogos.xlsx
+++ b/src/test/resources/data/out/jouerAuJeuDesLogos.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="27">
   <si>
     <t>Résultat</t>
   </si>
@@ -83,13 +83,29 @@
   </si>
   <si>
     <t>heineken</t>
+  </si>
+  <si>
+    <t>Succès</t>
+  </si>
+  <si>
+    <t>Échec : Ouverture LOGOGAME.</t>
+  </si>
+  <si>
+    <t>Élément non utilisé par le robot suite à une erreur précédente.</t>
+  </si>
+  <si>
+    <t>Succès sur cet élément</t>
+  </si>
+  <si>
+    <t>Échec : Brand « heineken » is prohibited.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +131,66 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
     </font>
   </fonts>
   <fills count="5">
@@ -155,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -167,6 +243,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,10 +654,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -594,7 +682,9 @@
         <v>5</v>
       </c>
       <c r="C2" s="8"/>
-      <c r="D2" s="6"/>
+      <c r="D2" s="21" t="s">
+        <v>23</v>
+      </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -605,7 +695,9 @@
         <v>6</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="7"/>
+      <c r="D3" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -616,7 +708,9 @@
         <v>18</v>
       </c>
       <c r="C4" s="8"/>
-      <c r="D4" s="7"/>
+      <c r="D4" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -627,7 +721,9 @@
         <v>7</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="6"/>
+      <c r="D5" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -638,6 +734,9 @@
         <v>8</v>
       </c>
       <c r="C6" s="8"/>
+      <c r="D6" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -648,7 +747,9 @@
         <v>9</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="7"/>
+      <c r="D7" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -659,7 +760,9 @@
         <v>5</v>
       </c>
       <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
+      <c r="D8" s="21" t="s">
+        <v>23</v>
+      </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -670,7 +773,9 @@
         <v>6</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="7"/>
+      <c r="D9" s="22" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -680,7 +785,9 @@
         <v>10</v>
       </c>
       <c r="C10" s="8"/>
-      <c r="D10" s="6"/>
+      <c r="D10" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -691,7 +798,9 @@
         <v>11</v>
       </c>
       <c r="C11" s="8"/>
-      <c r="D11" s="7"/>
+      <c r="D11" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -702,7 +811,9 @@
         <v>18</v>
       </c>
       <c r="C12" s="8"/>
-      <c r="D12" s="7"/>
+      <c r="D12" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -713,7 +824,9 @@
         <v>7</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="6"/>
+      <c r="D13" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -724,7 +837,9 @@
         <v>8</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="7"/>
+      <c r="D14" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -735,7 +850,9 @@
         <v>9</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="7"/>
+      <c r="D15" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -746,6 +863,9 @@
         <v>10</v>
       </c>
       <c r="C16" s="8"/>
+      <c r="D16" s="22" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
@@ -755,6 +875,9 @@
         <v>8</v>
       </c>
       <c r="C17" s="8"/>
+      <c r="D17" s="21" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
@@ -764,6 +887,9 @@
         <v>17</v>
       </c>
       <c r="C18" s="8"/>
+      <c r="D18" s="22" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
@@ -773,7 +899,9 @@
         <v>5</v>
       </c>
       <c r="C19" s="8"/>
-      <c r="D19" s="7"/>
+      <c r="D19" s="22" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
@@ -783,6 +911,9 @@
         <v>11</v>
       </c>
       <c r="C20" s="8"/>
+      <c r="D20" s="22" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
@@ -792,6 +923,9 @@
         <v>12</v>
       </c>
       <c r="C21" s="8"/>
+      <c r="D21" s="22" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
@@ -801,6 +935,9 @@
         <v>13</v>
       </c>
       <c r="C22" s="8"/>
+      <c r="D22" s="22" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
@@ -810,6 +947,9 @@
         <v>14</v>
       </c>
       <c r="C23" s="8"/>
+      <c r="D23" s="22" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
@@ -819,6 +959,9 @@
         <v>15</v>
       </c>
       <c r="C24" s="8"/>
+      <c r="D24" s="22" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
@@ -827,8 +970,8 @@
       <c r="B25" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D25">
-        <v>2</v>
+      <c r="D25" s="22" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -838,6 +981,9 @@
       <c r="B26" s="8" t="s">
         <v>9</v>
       </c>
+      <c r="D26" s="22" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
@@ -847,6 +993,9 @@
         <v>21</v>
       </c>
       <c r="C27" s="10"/>
+      <c r="D27" s="21" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
@@ -854,6 +1003,9 @@
       </c>
       <c r="B28" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">

--- a/src/test/resources/data/out/jouerAuJeuDesLogos.xlsx
+++ b/src/test/resources/data/out/jouerAuJeuDesLogos.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14670" windowHeight="5745"/>
+    <workbookView windowHeight="5745" windowWidth="14670" xWindow="0" yWindow="2445"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" r:id="rId1" sheetId="1"/>
   </sheets>
   <definedNames>
     <definedName name="Motifs">#REF!</definedName>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="37">
   <si>
     <t>Résultat</t>
   </si>
@@ -98,6 +98,36 @@
   </si>
   <si>
     <t>Échec : Brand « heineken » is prohibited.</t>
+  </si>
+  <si>
+    <t>Alerte : Brand « burgerking » does not exist.</t>
+  </si>
+  <si>
+    <t>Alerte : Brand « hellokitty » does not exist.</t>
+  </si>
+  <si>
+    <t>6 / 12</t>
+  </si>
+  <si>
+    <t>Alerte : Brand « redbull » does not exist.</t>
+  </si>
+  <si>
+    <t>9 / 12</t>
+  </si>
+  <si>
+    <t>Alerte : Brand « fake » does not exist.</t>
+  </si>
+  <si>
+    <t>1 / 12</t>
+  </si>
+  <si>
+    <t>Succès pour cet élément</t>
+  </si>
+  <si>
+    <t>Élément ignoré suite à une erreur précédente.</t>
+  </si>
+  <si>
+    <t>Échec : /!\ Ouverture de la page LOGOGAME. /!\</t>
   </si>
 </sst>
 </file>
@@ -105,7 +135,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="61" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +161,231 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -229,35 +484,80 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+  <cellXfs count="68">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="39" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="43" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="45" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="47" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="49" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="51" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="52" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="53" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="54" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="55" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="56" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -345,7 +645,7 @@
       </font>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <mruColors>
       <color rgb="FFFF6600"/>
@@ -364,10 +664,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -525,7 +825,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -534,13 +834,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -550,7 +850,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -559,7 +859,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -568,7 +868,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -578,12 +878,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -614,7 +914,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -633,7 +933,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -645,8 +945,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="A25" sqref="A25:D28"/>
@@ -681,9 +981,11 @@
       <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="21" t="s">
-        <v>23</v>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>22</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -695,8 +997,8 @@
         <v>6</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="22" t="s">
-        <v>24</v>
+      <c r="D3" s="65" t="s">
+        <v>22</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -708,8 +1010,8 @@
         <v>18</v>
       </c>
       <c r="C4" s="8"/>
-      <c r="D4" s="22" t="s">
-        <v>24</v>
+      <c r="D4" s="65" t="s">
+        <v>22</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -721,8 +1023,8 @@
         <v>7</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="22" t="s">
-        <v>24</v>
+      <c r="D5" s="65" t="s">
+        <v>22</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -734,8 +1036,8 @@
         <v>8</v>
       </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="22" t="s">
-        <v>24</v>
+      <c r="D6" s="65" t="s">
+        <v>22</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -747,8 +1049,8 @@
         <v>9</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="22" t="s">
-        <v>24</v>
+      <c r="D7" s="65" t="s">
+        <v>22</v>
       </c>
       <c r="E7" s="4"/>
     </row>
@@ -759,9 +1061,11 @@
       <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="21" t="s">
-        <v>23</v>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>22</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -773,8 +1077,8 @@
         <v>6</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="22" t="s">
-        <v>24</v>
+      <c r="D9" s="64" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -785,8 +1089,8 @@
         <v>10</v>
       </c>
       <c r="C10" s="8"/>
-      <c r="D10" s="22" t="s">
-        <v>24</v>
+      <c r="D10" s="65" t="s">
+        <v>22</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -798,8 +1102,8 @@
         <v>11</v>
       </c>
       <c r="C11" s="8"/>
-      <c r="D11" s="22" t="s">
-        <v>24</v>
+      <c r="D11" s="65" t="s">
+        <v>22</v>
       </c>
       <c r="E11" s="3"/>
     </row>
@@ -811,8 +1115,8 @@
         <v>18</v>
       </c>
       <c r="C12" s="8"/>
-      <c r="D12" s="22" t="s">
-        <v>24</v>
+      <c r="D12" s="62" t="s">
+        <v>22</v>
       </c>
       <c r="E12" s="4"/>
     </row>
@@ -824,8 +1128,8 @@
         <v>7</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="22" t="s">
-        <v>24</v>
+      <c r="D13" s="62" t="s">
+        <v>22</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -837,8 +1141,8 @@
         <v>8</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="22" t="s">
-        <v>24</v>
+      <c r="D14" s="64" t="s">
+        <v>28</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -850,8 +1154,8 @@
         <v>9</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="22" t="s">
-        <v>24</v>
+      <c r="D15" s="62" t="s">
+        <v>22</v>
       </c>
       <c r="E15" s="4"/>
     </row>
@@ -863,8 +1167,8 @@
         <v>10</v>
       </c>
       <c r="C16" s="8"/>
-      <c r="D16" s="22" t="s">
-        <v>24</v>
+      <c r="D16" s="62" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -874,9 +1178,11 @@
       <c r="B17" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="21" t="s">
-        <v>23</v>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="64" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -887,8 +1193,8 @@
         <v>17</v>
       </c>
       <c r="C18" s="8"/>
-      <c r="D18" s="22" t="s">
-        <v>24</v>
+      <c r="D18" s="64" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -899,8 +1205,8 @@
         <v>5</v>
       </c>
       <c r="C19" s="8"/>
-      <c r="D19" s="22" t="s">
-        <v>24</v>
+      <c r="D19" s="62" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -911,8 +1217,8 @@
         <v>11</v>
       </c>
       <c r="C20" s="8"/>
-      <c r="D20" s="22" t="s">
-        <v>24</v>
+      <c r="D20" s="62" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -923,8 +1229,8 @@
         <v>12</v>
       </c>
       <c r="C21" s="8"/>
-      <c r="D21" s="22" t="s">
-        <v>24</v>
+      <c r="D21" s="64" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -935,8 +1241,8 @@
         <v>13</v>
       </c>
       <c r="C22" s="8"/>
-      <c r="D22" s="22" t="s">
-        <v>24</v>
+      <c r="D22" s="62" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -947,8 +1253,8 @@
         <v>14</v>
       </c>
       <c r="C23" s="8"/>
-      <c r="D23" s="22" t="s">
-        <v>24</v>
+      <c r="D23" s="62" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -959,8 +1265,8 @@
         <v>15</v>
       </c>
       <c r="C24" s="8"/>
-      <c r="D24" s="22" t="s">
-        <v>24</v>
+      <c r="D24" s="62" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -970,8 +1276,8 @@
       <c r="B25" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="22" t="s">
-        <v>25</v>
+      <c r="D25" s="64" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -981,8 +1287,8 @@
       <c r="B26" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="22" t="s">
-        <v>25</v>
+      <c r="D26" s="64" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -993,7 +1299,7 @@
         <v>21</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="63" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1004,8 +1310,8 @@
       <c r="B28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="22" t="s">
-        <v>24</v>
+      <c r="D28" s="64" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1076,36 +1382,36 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D9 D19">
-    <cfRule type="expression" dxfId="11" priority="10">
+    <cfRule dxfId="11" priority="10" type="expression">
       <formula>COUNTIFS($A:$A,$A6,$D:$D, "Échec :*") &gt; 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D5 D7:D8 D10:D18 D20:D24 A2:C24">
-    <cfRule type="expression" dxfId="9" priority="6">
+    <cfRule dxfId="9" priority="6" type="expression">
       <formula>COUNTIFS($A:$A,$A2,$D:$D, "Échec :*") &gt; 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule dxfId="7" priority="4" type="expression">
       <formula>COUNTIFS($A:$A,$A26,$D:$D, "Échec :*") &gt; 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:B25 B26 A26:A28">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule dxfId="5" priority="3" type="expression">
       <formula>COUNTIFS($A:$A,$A25,$D:$D, "Échec :*") &gt; 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule dxfId="3" priority="2" type="expression">
       <formula>COUNTIFS($A:$A,$A28,$D:$D, "Échec :*") &gt; 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule dxfId="1" priority="1" type="expression">
       <formula>COUNTIFS($A:$A,$A26,$D:$D, "Échec :*") &gt; 0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/data/out/jouerAuJeuDesLogos.xlsx
+++ b/src/test/resources/data/out/jouerAuJeuDesLogos.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="5745" windowWidth="14670" xWindow="0" yWindow="2445"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14670" windowHeight="5745"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" r:id="rId1" sheetId="1"/>
+    <sheet name="NoraUi-jouerauJeuDesLogos" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="Motifs">#REF!</definedName>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="22">
   <si>
     <t>Résultat</t>
   </si>
@@ -83,59 +83,13 @@
   </si>
   <si>
     <t>heineken</t>
-  </si>
-  <si>
-    <t>Succès</t>
-  </si>
-  <si>
-    <t>Échec : Ouverture LOGOGAME.</t>
-  </si>
-  <si>
-    <t>Élément non utilisé par le robot suite à une erreur précédente.</t>
-  </si>
-  <si>
-    <t>Succès sur cet élément</t>
-  </si>
-  <si>
-    <t>Échec : Brand « heineken » is prohibited.</t>
-  </si>
-  <si>
-    <t>Alerte : Brand « burgerking » does not exist.</t>
-  </si>
-  <si>
-    <t>Alerte : Brand « hellokitty » does not exist.</t>
-  </si>
-  <si>
-    <t>6 / 12</t>
-  </si>
-  <si>
-    <t>Alerte : Brand « redbull » does not exist.</t>
-  </si>
-  <si>
-    <t>9 / 12</t>
-  </si>
-  <si>
-    <t>Alerte : Brand « fake » does not exist.</t>
-  </si>
-  <si>
-    <t>1 / 12</t>
-  </si>
-  <si>
-    <t>Succès pour cet élément</t>
-  </si>
-  <si>
-    <t>Élément ignoré suite à une erreur précédente.</t>
-  </si>
-  <si>
-    <t>Échec : /!\ Ouverture de la page LOGOGAME. /!\</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="61" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,291 +116,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -463,13 +132,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor rgb="FF006058"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,124 +153,25 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="39" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="43" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="45" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="47" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="49" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="51" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="52" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="53" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="54" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="55" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="56" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF6600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF6600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF6600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF6600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF6600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF6600"/>
-      </font>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <b/>
@@ -645,7 +215,7 @@
       </font>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFFF6600"/>
@@ -664,10 +234,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -825,7 +395,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -834,13 +404,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -850,7 +420,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -859,7 +429,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -868,7 +438,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -878,12 +448,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -914,7 +484,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -933,7 +503,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -945,26 +515,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="1" max="1" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -978,15 +548,11 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="65" t="s">
-        <v>22</v>
-      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="5"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -997,22 +563,18 @@
         <v>6</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="65" t="s">
-        <v>22</v>
-      </c>
+      <c r="D3" s="6"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="65" t="s">
-        <v>22</v>
-      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1023,296 +585,234 @@
         <v>7</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="65" t="s">
-        <v>22</v>
-      </c>
+      <c r="D5" s="5"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="65" t="s">
-        <v>22</v>
-      </c>
+      <c r="C6" s="7"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="65" t="s">
-        <v>22</v>
-      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="62" t="s">
-        <v>22</v>
-      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="64" t="s">
-        <v>27</v>
-      </c>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="65" t="s">
-        <v>22</v>
-      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="65" t="s">
-        <v>22</v>
-      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="62" t="s">
-        <v>22</v>
-      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="62" t="s">
-        <v>22</v>
-      </c>
+      <c r="D13" s="5"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="8" t="s">
+      <c r="A14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="64" t="s">
-        <v>28</v>
-      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="8" t="s">
+      <c r="A15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="62" t="s">
-        <v>22</v>
-      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="6"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="8" t="s">
+      <c r="A16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="62" t="s">
-        <v>22</v>
-      </c>
+      <c r="C16" s="7"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="64" t="s">
-        <v>28</v>
-      </c>
+      <c r="C17" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="64" t="s">
-        <v>32</v>
-      </c>
+      <c r="C18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="62" t="s">
-        <v>22</v>
-      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="8" t="s">
+      <c r="A20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="62" t="s">
-        <v>22</v>
-      </c>
+      <c r="C20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="8" t="s">
+      <c r="A21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="64" t="s">
-        <v>30</v>
-      </c>
+      <c r="C21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="8" t="s">
+      <c r="A22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="62" t="s">
-        <v>22</v>
-      </c>
+      <c r="C22" s="7"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="8" t="s">
+      <c r="A23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="62" t="s">
-        <v>22</v>
-      </c>
+      <c r="C23" s="7"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="8" t="s">
+      <c r="A24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="62" t="s">
-        <v>22</v>
-      </c>
+      <c r="C24" s="7"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="64" t="s">
-        <v>34</v>
+      <c r="D25">
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="64" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="63" t="s">
-        <v>26</v>
-      </c>
+      <c r="C27" s="9"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="64" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
@@ -1382,36 +882,36 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D9 D19">
-    <cfRule dxfId="11" priority="10" type="expression">
+    <cfRule type="expression" dxfId="5" priority="10">
       <formula>COUNTIFS($A:$A,$A6,$D:$D, "Échec :*") &gt; 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D5 D7:D8 D10:D18 D20:D24 A2:C24">
-    <cfRule dxfId="9" priority="6" type="expression">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>COUNTIFS($A:$A,$A2,$D:$D, "Échec :*") &gt; 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule dxfId="7" priority="4" type="expression">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>COUNTIFS($A:$A,$A26,$D:$D, "Échec :*") &gt; 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:B25 B26 A26:A28">
-    <cfRule dxfId="5" priority="3" type="expression">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>COUNTIFS($A:$A,$A25,$D:$D, "Échec :*") &gt; 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule dxfId="3" priority="2" type="expression">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>COUNTIFS($A:$A,$A28,$D:$D, "Échec :*") &gt; 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule dxfId="1" priority="1" type="expression">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>COUNTIFS($A:$A,$A26,$D:$D, "Échec :*") &gt; 0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>